--- a/filters.xlsx
+++ b/filters.xlsx
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
